--- a/Location/Yaquina_Dock5/Deployment/D00001_2019-01-11/2019-01-11_CMP_Configuration.xlsx
+++ b/Location/Yaquina_Dock5/Deployment/D00001_2019-01-11/2019-01-11_CMP_Configuration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\CMS\Location\Yaquina_Dock5\Deployment\D00001_2019-01-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\CMP\Location\Yaquina_Dock5\Deployment\D00001_2019-01-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A5C225E-5849-4EE2-8186-4F8EC2F7CC11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B41BD7A-6CC1-4974-8DAC-4D16B404255D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7185" activeTab="1" xr2:uid="{CC1A4120-A345-49ED-99D4-F299016F8EE0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7185" xr2:uid="{CC1A4120-A345-49ED-99D4-F299016F8EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Cube300R (18104414)" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="143">
   <si>
     <t>SN</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Date of Deployment</t>
   </si>
   <si>
-    <t>01-11-2019</t>
-  </si>
-  <si>
     <t>12/11/18</t>
   </si>
   <si>
@@ -451,6 +448,15 @@
   </si>
   <si>
     <t>2019-01-11_630411</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Delay in deployment. Originally up for deployment on 1/11, moved to 1/12.</t>
+  </si>
+  <si>
+    <t>01-12-2019</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -679,12 +685,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -700,7 +715,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,83 +743,125 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,25 +870,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,29 +878,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,623 +1202,669 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+    <row r="1" spans="1:23" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="D15" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="H16" s="21"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
+        <v>18104414</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20">
-        <v>18104414</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="21"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="64" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="13">
+        <v>100</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="P23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="13">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="13">
+        <v>4</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="13">
+        <v>3</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="14">
-        <v>100</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="14">
-        <v>2</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="P23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-    </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="14">
-        <v>3</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="14">
-        <v>2</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="14">
-        <v>4</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="14">
-        <v>3</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+    </row>
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20" t="s">
+      <c r="H29" s="21"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63" t="s">
+      <c r="D30" s="22"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20" t="s">
+      <c r="D31" s="21"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+    </row>
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="B34" s="20"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="21"/>
+    </row>
+    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+    </row>
+    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+    </row>
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+    </row>
+    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="68">
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H40"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -1812,33 +1878,33 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1850,10 +1916,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1862,61 +1928,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="A1" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1926,19 +1992,19 @@
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="6">
         <v>2.0099999999999998</v>
       </c>
@@ -1948,64 +2014,64 @@
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2018,16 +2084,16 @@
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="49"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="50"/>
+      <c r="A12" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="52"/>
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
@@ -2040,296 +2106,307 @@
       <c r="F12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="A13" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="A20" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="37"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="A31" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+  <mergeCells count="65">
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G23:H23"/>
@@ -2346,22 +2423,37 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2373,10 +2465,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2385,61 +2477,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="A1" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2449,19 +2541,19 @@
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="6">
         <v>2.0099999999999998</v>
       </c>
@@ -2471,64 +2563,64 @@
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="26"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2541,16 +2633,16 @@
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="49"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
@@ -2563,306 +2655,297 @@
       <c r="F12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="A13" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="A20" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="37"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="46" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="59"/>
+      <c r="G22" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37" t="s">
+      <c r="A23" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="59"/>
+      <c r="E26" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="26" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="A30" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="A31" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
+  <mergeCells count="65">
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H33"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E25:F25"/>
@@ -2879,12 +2962,47 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2896,10 +3014,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2908,61 +3026,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="A1" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2972,19 +3090,19 @@
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>630427</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="6">
         <v>2.0099999999999998</v>
       </c>
@@ -2994,64 +3112,64 @@
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="26"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3064,16 +3182,16 @@
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="49"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
@@ -3086,284 +3204,319 @@
       <c r="F12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="A13" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="A20" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="37"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="46" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="59"/>
+      <c r="G22" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37" t="s">
+      <c r="A23" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="59"/>
+      <c r="E26" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="26" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="A30" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="A31" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A16:H16"/>
+  <mergeCells count="65">
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H33"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A28:B28"/>
@@ -3380,34 +3533,25 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
